--- a/data/coded_segments/zm_7_2.xlsx
+++ b/data/coded_segments/zm_7_2.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Whiting/Repositories/amr-db/data/coded_segments_rename/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19C85361-160C-1340-B350-ECE8248E8B50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17620"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -3144,7 +3140,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3294,10 +3290,13 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3320,7 +3319,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -3332,7 +3331,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -3349,9 +3348,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -3379,14 +3378,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -3414,6 +3430,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3565,7 +3598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M444"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -3623,7 +3656,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -5017,7 +5050,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>13</v>
       </c>
@@ -5181,7 +5214,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>13</v>
       </c>
@@ -5222,7 +5255,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="70" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>13</v>
       </c>
@@ -5263,7 +5296,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>13</v>
       </c>
@@ -5304,7 +5337,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>13</v>
       </c>
@@ -5878,7 +5911,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>13</v>
       </c>
@@ -6821,7 +6854,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
         <v>13</v>
       </c>
@@ -6862,7 +6895,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
         <v>13</v>
       </c>
@@ -6903,7 +6936,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>13</v>
       </c>
@@ -6944,7 +6977,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>13</v>
       </c>
@@ -9896,7 +9929,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
         <v>13</v>
       </c>
@@ -9937,7 +9970,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A156" s="6" t="s">
         <v>13</v>
       </c>
@@ -11905,7 +11938,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="204" spans="1:13" ht="70" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A204" s="6" t="s">
         <v>13</v>
       </c>
@@ -11946,7 +11979,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="205" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A205" s="6" t="s">
         <v>13</v>
       </c>
@@ -12028,7 +12061,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="207" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A207" s="6" t="s">
         <v>13</v>
       </c>
@@ -12110,7 +12143,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A209" s="6" t="s">
         <v>13</v>
       </c>
@@ -12192,7 +12225,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="211" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A211" s="6" t="s">
         <v>13</v>
       </c>
@@ -12356,7 +12389,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="215" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A215" s="6" t="s">
         <v>13</v>
       </c>
@@ -12684,7 +12717,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="223" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A223" s="6" t="s">
         <v>13</v>
       </c>
@@ -12848,7 +12881,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A227" s="6" t="s">
         <v>13</v>
       </c>
@@ -13176,7 +13209,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="235" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A235" s="6" t="s">
         <v>13</v>
       </c>
@@ -13627,7 +13660,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="246" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A246" s="6" t="s">
         <v>13</v>
       </c>
@@ -13668,7 +13701,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="247" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A247" s="6" t="s">
         <v>13</v>
       </c>
@@ -13709,7 +13742,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="248" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A248" s="6" t="s">
         <v>13</v>
       </c>
@@ -13750,7 +13783,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="249" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A249" s="6" t="s">
         <v>13</v>
       </c>
@@ -14037,7 +14070,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="256" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A256" s="6" t="s">
         <v>13</v>
       </c>
@@ -14078,7 +14111,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="257" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A257" s="6" t="s">
         <v>13</v>
       </c>
@@ -14447,7 +14480,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="266" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A266" s="6" t="s">
         <v>13</v>
       </c>
@@ -14816,7 +14849,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="275" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A275" s="6" t="s">
         <v>13</v>
       </c>
@@ -15267,7 +15300,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="286" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A286" s="6" t="s">
         <v>13</v>
       </c>
@@ -15349,7 +15382,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="288" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A288" s="6" t="s">
         <v>13</v>
       </c>
@@ -16087,7 +16120,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="306" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A306" s="6" t="s">
         <v>13</v>
       </c>
@@ -16415,7 +16448,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="314" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A314" s="6" t="s">
         <v>13</v>
       </c>
@@ -16497,7 +16530,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="316" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A316" s="6" t="s">
         <v>13</v>
       </c>
@@ -16620,7 +16653,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="319" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A319" s="6" t="s">
         <v>13</v>
       </c>
@@ -16661,7 +16694,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="320" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A320" s="6" t="s">
         <v>13</v>
       </c>
@@ -16702,7 +16735,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="321" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A321" s="6" t="s">
         <v>13</v>
       </c>
@@ -16784,7 +16817,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="323" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A323" s="6" t="s">
         <v>13</v>
       </c>
@@ -16825,7 +16858,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="324" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A324" s="6" t="s">
         <v>13</v>
       </c>
@@ -18875,7 +18908,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="374" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A374" s="6" t="s">
         <v>13</v>
       </c>
@@ -19203,7 +19236,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="382" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A382" s="6" t="s">
         <v>13</v>
       </c>
@@ -19408,7 +19441,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="387" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A387" s="6" t="s">
         <v>13</v>
       </c>
@@ -19531,7 +19564,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="390" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A390" s="6" t="s">
         <v>13</v>
       </c>
@@ -19654,7 +19687,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="393" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A393" s="6" t="s">
         <v>13</v>
       </c>
@@ -19777,7 +19810,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="396" spans="1:13" ht="70" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A396" s="6" t="s">
         <v>13</v>
       </c>
@@ -20187,7 +20220,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="406" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A406" s="6" t="s">
         <v>13</v>
       </c>
@@ -20269,7 +20302,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="408" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A408" s="6" t="s">
         <v>13</v>
       </c>
@@ -20679,7 +20712,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="418" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A418" s="6" t="s">
         <v>13</v>
       </c>
@@ -20802,7 +20835,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="421" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A421" s="6" t="s">
         <v>13</v>
       </c>
@@ -21294,7 +21327,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="433" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A433" s="6" t="s">
         <v>13</v>
       </c>
@@ -21335,7 +21368,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="434" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A434" s="6" t="s">
         <v>13</v>
       </c>
@@ -21376,7 +21409,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="435" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A435" s="6" t="s">
         <v>13</v>
       </c>
@@ -21540,7 +21573,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="439" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A439" s="6" t="s">
         <v>13</v>
       </c>
@@ -21663,7 +21696,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="442" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A442" s="6" t="s">
         <v>13</v>
       </c>
@@ -21745,7 +21778,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="444" spans="1:13" ht="70" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:13" ht="75" x14ac:dyDescent="0.2">
       <c r="A444" s="6" t="s">
         <v>13</v>
       </c>

--- a/data/coded_segments/zm_7_2.xlsx
+++ b/data/coded_segments/zm_7_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19C85361-160C-1340-B350-ECE8248E8B50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9258DDA-20D2-8147-8278-F42F40DE24FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4443" uniqueCount="1015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4863" uniqueCount="1061">
   <si>
     <t>Color</t>
   </si>
@@ -1741,10 +1741,16 @@
     <t>4: 1668</t>
   </si>
   <si>
-    <t>4: 1677</t>
+    <t>4: 1679</t>
   </si>
   <si>
     <t>&gt;8 µg ml 1</t>
+  </si>
+  <si>
+    <t>chen</t>
+  </si>
+  <si>
+    <t>1/31/19 14:45:19</t>
   </si>
   <si>
     <t>1: 66</t>
@@ -3135,6 +3141,138 @@
   </si>
   <si>
     <t>7/30/18 11:40:00</t>
+  </si>
+  <si>
+    <t>1/31/19 14:13:06</t>
+  </si>
+  <si>
+    <t>1/31/19 14:13:15</t>
+  </si>
+  <si>
+    <t>1/31/19 14:13:19</t>
+  </si>
+  <si>
+    <t>1/31/19 14:13:27</t>
+  </si>
+  <si>
+    <t>1/31/19 14:13:32</t>
+  </si>
+  <si>
+    <t>1/31/19 14:14:18</t>
+  </si>
+  <si>
+    <t>1/31/19 14:14:26</t>
+  </si>
+  <si>
+    <t>1/31/19 14:14:54</t>
+  </si>
+  <si>
+    <t>1/31/19 14:15:00</t>
+  </si>
+  <si>
+    <t>1/31/19 14:15:04</t>
+  </si>
+  <si>
+    <t>1/31/19 14:15:09</t>
+  </si>
+  <si>
+    <t>1/31/19 14:15:27</t>
+  </si>
+  <si>
+    <t>1/31/19 14:15:33</t>
+  </si>
+  <si>
+    <t>1/31/19 14:15:50</t>
+  </si>
+  <si>
+    <t>1/31/19 14:15:59</t>
+  </si>
+  <si>
+    <t>1/31/19 14:16:20</t>
+  </si>
+  <si>
+    <t>1/31/19 14:16:24</t>
+  </si>
+  <si>
+    <t>1/31/19 14:16:29</t>
+  </si>
+  <si>
+    <t>1/31/19 14:17:15</t>
+  </si>
+  <si>
+    <t>1/31/19 14:17:20</t>
+  </si>
+  <si>
+    <t>1/31/19 14:17:26</t>
+  </si>
+  <si>
+    <t>1/31/19 14:17:31</t>
+  </si>
+  <si>
+    <t>1/31/19 14:17:38</t>
+  </si>
+  <si>
+    <t>1/31/19 14:17:43</t>
+  </si>
+  <si>
+    <t>1/31/19 14:17:49</t>
+  </si>
+  <si>
+    <t>1/31/19 14:36:36</t>
+  </si>
+  <si>
+    <t>1/31/19 14:44:23</t>
+  </si>
+  <si>
+    <t>1/31/19 14:45:22</t>
+  </si>
+  <si>
+    <t>3: 5902</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32</t>
+  </si>
+  <si>
+    <t>1/31/19 14:49:15</t>
+  </si>
+  <si>
+    <t>1/31/19 14:49:49</t>
+  </si>
+  <si>
+    <t>1/31/19 14:51:59</t>
+  </si>
+  <si>
+    <t>1/31/19 14:52:07</t>
+  </si>
+  <si>
+    <t>1/31/19 14:52:41</t>
+  </si>
+  <si>
+    <t>1/31/19 14:53:12</t>
+  </si>
+  <si>
+    <t>1/31/19 14:53:58</t>
+  </si>
+  <si>
+    <t>1/31/19 14:54:14</t>
+  </si>
+  <si>
+    <t>1/31/19 14:54:27</t>
+  </si>
+  <si>
+    <t>1/31/19 14:56:03</t>
+  </si>
+  <si>
+    <t>1/31/19 14:56:36</t>
+  </si>
+  <si>
+    <t>1/31/19 14:56:49</t>
+  </si>
+  <si>
+    <t>1/31/19 14:56:57</t>
+  </si>
+  <si>
+    <t>1/31/19 14:57:34</t>
   </si>
 </sst>
 </file>
@@ -3599,7 +3737,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M444"/>
+  <dimension ref="A1:M486"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13200,13 +13338,13 @@
         <v>10</v>
       </c>
       <c r="K234" s="4">
-        <v>3.7810000000000003E-2</v>
+        <v>3.7810042347247427E-2</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>20</v>
+        <v>565</v>
       </c>
       <c r="M234" s="1" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
     </row>
     <row r="235" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -13308,16 +13446,16 @@
         <v>77</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H237" s="3">
         <v>0</v>
       </c>
       <c r="I237" s="2" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="J237" s="3">
         <v>17</v>
@@ -13329,7 +13467,7 @@
         <v>20</v>
       </c>
       <c r="M237" s="1" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="238" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -13349,16 +13487,16 @@
         <v>199</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H238" s="3">
         <v>0</v>
       </c>
       <c r="I238" s="2" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="J238" s="3">
         <v>9</v>
@@ -13370,7 +13508,7 @@
         <v>20</v>
       </c>
       <c r="M238" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="239" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -13390,16 +13528,16 @@
         <v>89</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="H239" s="3">
         <v>0</v>
       </c>
       <c r="I239" s="2" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="J239" s="3">
         <v>5</v>
@@ -13411,7 +13549,7 @@
         <v>20</v>
       </c>
       <c r="M239" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="240" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -13431,16 +13569,16 @@
         <v>100</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="H240" s="3">
         <v>0</v>
       </c>
       <c r="I240" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="J240" s="3">
         <v>11</v>
@@ -13452,7 +13590,7 @@
         <v>20</v>
       </c>
       <c r="M240" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="241" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -13472,16 +13610,16 @@
         <v>104</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H241" s="3">
         <v>0</v>
       </c>
       <c r="I241" s="2" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="J241" s="3">
         <v>5</v>
@@ -13493,7 +13631,7 @@
         <v>20</v>
       </c>
       <c r="M241" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="242" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -13510,19 +13648,19 @@
         <v>514</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="H242" s="3">
         <v>0</v>
       </c>
       <c r="I242" s="2" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="J242" s="3">
         <v>5</v>
@@ -13534,7 +13672,7 @@
         <v>20</v>
       </c>
       <c r="M242" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="243" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -13554,16 +13692,16 @@
         <v>109</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="H243" s="3">
         <v>0</v>
       </c>
       <c r="I243" s="2" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="J243" s="3">
         <v>13</v>
@@ -13575,7 +13713,7 @@
         <v>20</v>
       </c>
       <c r="M243" s="1" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="244" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -13595,16 +13733,16 @@
         <v>109</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="H244" s="3">
         <v>0</v>
       </c>
       <c r="I244" s="2" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="J244" s="3">
         <v>15</v>
@@ -13616,7 +13754,7 @@
         <v>20</v>
       </c>
       <c r="M244" s="1" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="245" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -13636,16 +13774,16 @@
         <v>109</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="H245" s="3">
         <v>0</v>
       </c>
       <c r="I245" s="2" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="J245" s="3">
         <v>14</v>
@@ -13657,7 +13795,7 @@
         <v>20</v>
       </c>
       <c r="M245" s="1" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="246" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -13674,19 +13812,19 @@
         <v>514</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="H246" s="3">
         <v>0</v>
       </c>
       <c r="I246" s="2" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="J246" s="3">
         <v>37</v>
@@ -13698,7 +13836,7 @@
         <v>20</v>
       </c>
       <c r="M246" s="1" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="247" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -13715,19 +13853,19 @@
         <v>514</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="H247" s="3">
         <v>0</v>
       </c>
       <c r="I247" s="2" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="J247" s="3">
         <v>56</v>
@@ -13739,7 +13877,7 @@
         <v>20</v>
       </c>
       <c r="M247" s="1" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="248" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -13759,16 +13897,16 @@
         <v>492</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="H248" s="3">
         <v>0</v>
       </c>
       <c r="I248" s="2" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="J248" s="3">
         <v>31</v>
@@ -13780,7 +13918,7 @@
         <v>20</v>
       </c>
       <c r="M248" s="1" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="249" spans="1:13" ht="45" x14ac:dyDescent="0.2">
@@ -13794,22 +13932,22 @@
         <v>14</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E249" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="H249" s="3">
         <v>0</v>
       </c>
       <c r="I249" s="2" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="J249" s="3">
         <v>142</v>
@@ -13821,7 +13959,7 @@
         <v>20</v>
       </c>
       <c r="M249" s="1" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="250" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -13835,22 +13973,22 @@
         <v>14</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="H250" s="3">
         <v>0</v>
       </c>
       <c r="I250" s="2" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="J250" s="3">
         <v>4</v>
@@ -13862,7 +14000,7 @@
         <v>20</v>
       </c>
       <c r="M250" s="1" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="251" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -13876,16 +14014,16 @@
         <v>14</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="H251" s="3">
         <v>0</v>
@@ -13903,7 +14041,7 @@
         <v>20</v>
       </c>
       <c r="M251" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="252" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -13917,16 +14055,16 @@
         <v>14</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="H252" s="3">
         <v>0</v>
@@ -13944,7 +14082,7 @@
         <v>20</v>
       </c>
       <c r="M252" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="253" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -13958,16 +14096,16 @@
         <v>14</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E253" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="H253" s="3">
         <v>0</v>
@@ -13985,7 +14123,7 @@
         <v>20</v>
       </c>
       <c r="M253" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="254" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -13999,22 +14137,22 @@
         <v>14</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E254" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="H254" s="3">
         <v>0</v>
       </c>
       <c r="I254" s="2" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="J254" s="3">
         <v>12</v>
@@ -14026,7 +14164,7 @@
         <v>20</v>
       </c>
       <c r="M254" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="255" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14040,16 +14178,16 @@
         <v>14</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="H255" s="3">
         <v>0</v>
@@ -14067,7 +14205,7 @@
         <v>20</v>
       </c>
       <c r="M255" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="256" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -14081,22 +14219,22 @@
         <v>14</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="H256" s="3">
         <v>0</v>
       </c>
       <c r="I256" s="2" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="J256" s="3">
         <v>25</v>
@@ -14108,7 +14246,7 @@
         <v>20</v>
       </c>
       <c r="M256" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="257" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -14122,22 +14260,22 @@
         <v>14</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="H257" s="3">
         <v>0</v>
       </c>
       <c r="I257" s="2" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="J257" s="3">
         <v>22</v>
@@ -14149,7 +14287,7 @@
         <v>20</v>
       </c>
       <c r="M257" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="258" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14163,22 +14301,22 @@
         <v>14</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="H258" s="3">
         <v>0</v>
       </c>
       <c r="I258" s="2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="J258" s="3">
         <v>10</v>
@@ -14190,7 +14328,7 @@
         <v>20</v>
       </c>
       <c r="M258" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="259" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14204,22 +14342,22 @@
         <v>14</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="H259" s="3">
         <v>0</v>
       </c>
       <c r="I259" s="2" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="J259" s="3">
         <v>9</v>
@@ -14231,7 +14369,7 @@
         <v>20</v>
       </c>
       <c r="M259" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="260" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14245,16 +14383,16 @@
         <v>14</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="H260" s="3">
         <v>0</v>
@@ -14272,7 +14410,7 @@
         <v>20</v>
       </c>
       <c r="M260" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="261" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14286,16 +14424,16 @@
         <v>14</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="H261" s="3">
         <v>0</v>
@@ -14313,7 +14451,7 @@
         <v>20</v>
       </c>
       <c r="M261" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="262" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14327,22 +14465,22 @@
         <v>14</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="H262" s="3">
         <v>0</v>
       </c>
       <c r="I262" s="2" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="J262" s="3">
         <v>10</v>
@@ -14354,7 +14492,7 @@
         <v>20</v>
       </c>
       <c r="M262" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="263" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14368,22 +14506,22 @@
         <v>14</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E263" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="H263" s="3">
         <v>0</v>
       </c>
       <c r="I263" s="2" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="J263" s="3">
         <v>8</v>
@@ -14395,7 +14533,7 @@
         <v>20</v>
       </c>
       <c r="M263" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="264" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14409,16 +14547,16 @@
         <v>14</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="H264" s="3">
         <v>0</v>
@@ -14436,7 +14574,7 @@
         <v>20</v>
       </c>
       <c r="M264" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="265" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14450,22 +14588,22 @@
         <v>14</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="H265" s="3">
         <v>0</v>
       </c>
       <c r="I265" s="2" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="J265" s="3">
         <v>8</v>
@@ -14477,7 +14615,7 @@
         <v>20</v>
       </c>
       <c r="M265" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="266" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -14491,22 +14629,22 @@
         <v>14</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E266" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="H266" s="3">
         <v>0</v>
       </c>
       <c r="I266" s="2" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J266" s="3">
         <v>31</v>
@@ -14518,7 +14656,7 @@
         <v>20</v>
       </c>
       <c r="M266" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="267" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14532,16 +14670,16 @@
         <v>14</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="H267" s="3">
         <v>0</v>
@@ -14559,7 +14697,7 @@
         <v>20</v>
       </c>
       <c r="M267" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="268" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14573,22 +14711,22 @@
         <v>14</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H268" s="3">
         <v>0</v>
       </c>
       <c r="I268" s="2" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="J268" s="3">
         <v>4</v>
@@ -14600,7 +14738,7 @@
         <v>20</v>
       </c>
       <c r="M268" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="269" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14614,16 +14752,16 @@
         <v>14</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="H269" s="3">
         <v>0</v>
@@ -14641,7 +14779,7 @@
         <v>20</v>
       </c>
       <c r="M269" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="270" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14655,16 +14793,16 @@
         <v>14</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="H270" s="3">
         <v>0</v>
@@ -14682,7 +14820,7 @@
         <v>20</v>
       </c>
       <c r="M270" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="271" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14696,22 +14834,22 @@
         <v>14</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="H271" s="3">
         <v>0</v>
       </c>
       <c r="I271" s="2" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="J271" s="3">
         <v>4</v>
@@ -14723,7 +14861,7 @@
         <v>20</v>
       </c>
       <c r="M271" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="272" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14737,22 +14875,22 @@
         <v>14</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="H272" s="3">
         <v>0</v>
       </c>
       <c r="I272" s="2" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="J272" s="3">
         <v>4</v>
@@ -14764,7 +14902,7 @@
         <v>20</v>
       </c>
       <c r="M272" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="273" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14778,16 +14916,16 @@
         <v>14</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="H273" s="3">
         <v>0</v>
@@ -14805,7 +14943,7 @@
         <v>20</v>
       </c>
       <c r="M273" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="274" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14819,22 +14957,22 @@
         <v>14</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="H274" s="3">
         <v>0</v>
       </c>
       <c r="I274" s="2" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="J274" s="3">
         <v>3</v>
@@ -14846,7 +14984,7 @@
         <v>20</v>
       </c>
       <c r="M274" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="275" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -14860,22 +14998,22 @@
         <v>14</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="H275" s="3">
         <v>0</v>
       </c>
       <c r="I275" s="2" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="J275" s="3">
         <v>11</v>
@@ -14887,7 +15025,7 @@
         <v>20</v>
       </c>
       <c r="M275" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="276" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14901,16 +15039,16 @@
         <v>14</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="H276" s="3">
         <v>0</v>
@@ -14928,7 +15066,7 @@
         <v>20</v>
       </c>
       <c r="M276" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="277" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14942,22 +15080,22 @@
         <v>14</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H277" s="3">
         <v>0</v>
       </c>
       <c r="I277" s="2" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="J277" s="3">
         <v>4</v>
@@ -14969,7 +15107,7 @@
         <v>20</v>
       </c>
       <c r="M277" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="278" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -14983,16 +15121,16 @@
         <v>14</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="H278" s="3">
         <v>0</v>
@@ -15010,7 +15148,7 @@
         <v>20</v>
       </c>
       <c r="M278" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="279" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15024,22 +15162,22 @@
         <v>14</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H279" s="3">
         <v>0</v>
       </c>
       <c r="I279" s="2" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="J279" s="3">
         <v>4</v>
@@ -15051,7 +15189,7 @@
         <v>20</v>
       </c>
       <c r="M279" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="280" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15065,16 +15203,16 @@
         <v>14</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="H280" s="3">
         <v>0</v>
@@ -15092,7 +15230,7 @@
         <v>20</v>
       </c>
       <c r="M280" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="281" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15106,22 +15244,22 @@
         <v>14</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H281" s="3">
         <v>0</v>
       </c>
       <c r="I281" s="2" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="J281" s="3">
         <v>4</v>
@@ -15133,7 +15271,7 @@
         <v>20</v>
       </c>
       <c r="M281" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="282" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15147,22 +15285,22 @@
         <v>14</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E282" s="1" t="s">
         <v>67</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="H282" s="3">
         <v>0</v>
       </c>
       <c r="I282" s="2" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="J282" s="3">
         <v>12</v>
@@ -15174,7 +15312,7 @@
         <v>20</v>
       </c>
       <c r="M282" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="283" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15188,22 +15326,22 @@
         <v>14</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E283" s="1" t="s">
         <v>67</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="H283" s="3">
         <v>0</v>
       </c>
       <c r="I283" s="2" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="J283" s="3">
         <v>4</v>
@@ -15215,7 +15353,7 @@
         <v>20</v>
       </c>
       <c r="M283" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="284" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15229,16 +15367,16 @@
         <v>14</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E284" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="H284" s="3">
         <v>0</v>
@@ -15256,7 +15394,7 @@
         <v>20</v>
       </c>
       <c r="M284" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="285" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15270,16 +15408,16 @@
         <v>14</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E285" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="G285" s="1" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="H285" s="3">
         <v>0</v>
@@ -15297,7 +15435,7 @@
         <v>20</v>
       </c>
       <c r="M285" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="286" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -15311,22 +15449,22 @@
         <v>14</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E286" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="G286" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="H286" s="3">
         <v>0</v>
       </c>
       <c r="I286" s="2" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="J286" s="3">
         <v>25</v>
@@ -15338,7 +15476,7 @@
         <v>20</v>
       </c>
       <c r="M286" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="287" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15352,16 +15490,16 @@
         <v>14</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E287" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="H287" s="3">
         <v>0</v>
@@ -15379,7 +15517,7 @@
         <v>20</v>
       </c>
       <c r="M287" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="288" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -15393,22 +15531,22 @@
         <v>14</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E288" s="1" t="s">
         <v>76</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="H288" s="3">
         <v>0</v>
       </c>
       <c r="I288" s="2" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="J288" s="3">
         <v>22</v>
@@ -15420,7 +15558,7 @@
         <v>20</v>
       </c>
       <c r="M288" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="289" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15434,22 +15572,22 @@
         <v>14</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E289" s="1" t="s">
         <v>76</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="H289" s="3">
         <v>0</v>
       </c>
       <c r="I289" s="2" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="J289" s="3">
         <v>4</v>
@@ -15461,7 +15599,7 @@
         <v>20</v>
       </c>
       <c r="M289" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="290" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15475,22 +15613,22 @@
         <v>14</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E290" s="1" t="s">
         <v>331</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="H290" s="3">
         <v>0</v>
       </c>
       <c r="I290" s="2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="J290" s="3">
         <v>10</v>
@@ -15502,7 +15640,7 @@
         <v>20</v>
       </c>
       <c r="M290" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="291" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15516,22 +15654,22 @@
         <v>14</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E291" s="1" t="s">
         <v>331</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="H291" s="3">
         <v>0</v>
       </c>
       <c r="I291" s="2" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="J291" s="3">
         <v>4</v>
@@ -15543,7 +15681,7 @@
         <v>20</v>
       </c>
       <c r="M291" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="292" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15557,22 +15695,22 @@
         <v>14</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E292" s="1" t="s">
         <v>332</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="H292" s="3">
         <v>0</v>
       </c>
       <c r="I292" s="2" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="J292" s="3">
         <v>9</v>
@@ -15584,7 +15722,7 @@
         <v>20</v>
       </c>
       <c r="M292" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="293" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15598,16 +15736,16 @@
         <v>14</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E293" s="1" t="s">
         <v>332</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="H293" s="3">
         <v>0</v>
@@ -15625,7 +15763,7 @@
         <v>20</v>
       </c>
       <c r="M293" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="294" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15639,16 +15777,16 @@
         <v>14</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E294" s="1" t="s">
         <v>335</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="H294" s="3">
         <v>0</v>
@@ -15666,7 +15804,7 @@
         <v>20</v>
       </c>
       <c r="M294" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="295" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15680,22 +15818,22 @@
         <v>14</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>335</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="H295" s="3">
         <v>0</v>
       </c>
       <c r="I295" s="2" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="J295" s="3">
         <v>4</v>
@@ -15707,7 +15845,7 @@
         <v>20</v>
       </c>
       <c r="M295" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="296" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15721,16 +15859,16 @@
         <v>14</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>339</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="H296" s="3">
         <v>0</v>
@@ -15748,7 +15886,7 @@
         <v>20</v>
       </c>
       <c r="M296" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="297" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15762,22 +15900,22 @@
         <v>14</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>339</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="H297" s="3">
         <v>0</v>
       </c>
       <c r="I297" s="2" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="J297" s="3">
         <v>4</v>
@@ -15789,7 +15927,7 @@
         <v>20</v>
       </c>
       <c r="M297" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="298" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15803,22 +15941,22 @@
         <v>14</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>342</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="G298" s="1" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="H298" s="3">
         <v>0</v>
       </c>
       <c r="I298" s="2" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="J298" s="3">
         <v>10</v>
@@ -15830,7 +15968,7 @@
         <v>20</v>
       </c>
       <c r="M298" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="299" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15844,22 +15982,22 @@
         <v>14</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>342</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="G299" s="1" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="H299" s="3">
         <v>0</v>
       </c>
       <c r="I299" s="2" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="J299" s="3">
         <v>4</v>
@@ -15871,7 +16009,7 @@
         <v>20</v>
       </c>
       <c r="M299" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="300" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15885,22 +16023,22 @@
         <v>14</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>343</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="G300" s="1" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="H300" s="3">
         <v>0</v>
       </c>
       <c r="I300" s="2" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="J300" s="3">
         <v>8</v>
@@ -15912,7 +16050,7 @@
         <v>20</v>
       </c>
       <c r="M300" s="1" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="301" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15926,16 +16064,16 @@
         <v>14</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>343</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="G301" s="1" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="H301" s="3">
         <v>0</v>
@@ -15953,7 +16091,7 @@
         <v>20</v>
       </c>
       <c r="M301" s="1" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="302" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -15967,16 +16105,16 @@
         <v>14</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>347</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="G302" s="1" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="H302" s="3">
         <v>0</v>
@@ -15994,7 +16132,7 @@
         <v>20</v>
       </c>
       <c r="M302" s="1" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="303" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -16008,22 +16146,22 @@
         <v>14</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>347</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="G303" s="1" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="H303" s="3">
         <v>0</v>
       </c>
       <c r="I303" s="2" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="J303" s="3">
         <v>4</v>
@@ -16035,7 +16173,7 @@
         <v>20</v>
       </c>
       <c r="M303" s="1" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="304" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -16049,22 +16187,22 @@
         <v>14</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>350</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="H304" s="3">
         <v>0</v>
       </c>
       <c r="I304" s="2" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="J304" s="3">
         <v>8</v>
@@ -16076,7 +16214,7 @@
         <v>20</v>
       </c>
       <c r="M304" s="1" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="305" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -16090,16 +16228,16 @@
         <v>14</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E305" s="1" t="s">
         <v>350</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="G305" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="H305" s="3">
         <v>0</v>
@@ -16117,7 +16255,7 @@
         <v>20</v>
       </c>
       <c r="M305" s="1" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="306" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -16131,22 +16269,22 @@
         <v>14</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E306" s="1" t="s">
         <v>353</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="G306" s="1" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="H306" s="3">
         <v>0</v>
       </c>
       <c r="I306" s="2" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="J306" s="3">
         <v>31</v>
@@ -16158,7 +16296,7 @@
         <v>20</v>
       </c>
       <c r="M306" s="1" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="307" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -16172,22 +16310,22 @@
         <v>14</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>353</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="G307" s="1" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="H307" s="3">
         <v>0</v>
       </c>
       <c r="I307" s="2" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="J307" s="3">
         <v>3</v>
@@ -16199,7 +16337,7 @@
         <v>20</v>
       </c>
       <c r="M307" s="1" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="308" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -16213,16 +16351,16 @@
         <v>14</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>356</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="G308" s="1" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="H308" s="3">
         <v>0</v>
@@ -16240,7 +16378,7 @@
         <v>20</v>
       </c>
       <c r="M308" s="1" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="309" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -16254,22 +16392,22 @@
         <v>14</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E309" s="1" t="s">
         <v>356</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G309" s="1" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="H309" s="3">
         <v>0</v>
       </c>
       <c r="I309" s="2" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="J309" s="3">
         <v>3</v>
@@ -16281,7 +16419,7 @@
         <v>20</v>
       </c>
       <c r="M309" s="1" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="310" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -16295,22 +16433,22 @@
         <v>14</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E310" s="1" t="s">
         <v>77</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="G310" s="1" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="H310" s="3">
         <v>0</v>
       </c>
       <c r="I310" s="2" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="J310" s="3">
         <v>21</v>
@@ -16322,7 +16460,7 @@
         <v>20</v>
       </c>
       <c r="M310" s="1" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="311" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -16336,16 +16474,16 @@
         <v>14</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>82</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="G311" s="1" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="H311" s="3">
         <v>0</v>
@@ -16363,7 +16501,7 @@
         <v>20</v>
       </c>
       <c r="M311" s="1" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="312" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -16377,22 +16515,22 @@
         <v>14</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="G312" s="1" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="H312" s="3">
         <v>0</v>
       </c>
       <c r="I312" s="2" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="J312" s="3">
         <v>8</v>
@@ -16404,7 +16542,7 @@
         <v>20</v>
       </c>
       <c r="M312" s="1" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="313" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -16418,22 +16556,22 @@
         <v>14</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G313" s="1" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="H313" s="3">
         <v>0</v>
       </c>
       <c r="I313" s="2" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="J313" s="3">
         <v>10</v>
@@ -16445,7 +16583,7 @@
         <v>20</v>
       </c>
       <c r="M313" s="1" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="314" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -16459,22 +16597,22 @@
         <v>14</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>97</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="G314" s="1" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="H314" s="3">
         <v>0</v>
       </c>
       <c r="I314" s="2" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="J314" s="3">
         <v>64</v>
@@ -16486,7 +16624,7 @@
         <v>20</v>
       </c>
       <c r="M314" s="1" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="315" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -16500,22 +16638,22 @@
         <v>14</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>100</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="G315" s="1" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="H315" s="3">
         <v>0</v>
       </c>
       <c r="I315" s="2" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="J315" s="3">
         <v>11</v>
@@ -16527,7 +16665,7 @@
         <v>20</v>
       </c>
       <c r="M315" s="1" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="316" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -16541,13 +16679,13 @@
         <v>14</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E316" s="1" t="s">
         <v>109</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="G316" s="1" t="s">
         <v>455</v>
@@ -16556,7 +16694,7 @@
         <v>0</v>
       </c>
       <c r="I316" s="2" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="J316" s="3">
         <v>28</v>
@@ -16568,7 +16706,7 @@
         <v>20</v>
       </c>
       <c r="M316" s="1" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="317" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -16582,22 +16720,22 @@
         <v>14</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>109</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="G317" s="1" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="H317" s="3">
         <v>0</v>
       </c>
       <c r="I317" s="2" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="J317" s="3">
         <v>31</v>
@@ -16609,7 +16747,7 @@
         <v>20</v>
       </c>
       <c r="M317" s="1" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="318" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -16623,22 +16761,22 @@
         <v>14</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>492</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="G318" s="1" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="H318" s="3">
         <v>0</v>
       </c>
       <c r="I318" s="2" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="J318" s="3">
         <v>39</v>
@@ -16650,7 +16788,7 @@
         <v>20</v>
       </c>
       <c r="M318" s="1" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="319" spans="1:13" ht="60" x14ac:dyDescent="0.2">
@@ -16658,28 +16796,28 @@
         <v>13</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="E319" s="1" t="s">
         <v>134</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="G319" s="1" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="H319" s="3">
         <v>0</v>
       </c>
       <c r="I319" s="2" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="J319" s="3">
         <v>218</v>
@@ -16691,7 +16829,7 @@
         <v>20</v>
       </c>
       <c r="M319" s="1" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="320" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -16699,13 +16837,13 @@
         <v>13</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="E320" s="1" t="s">
         <v>134</v>
@@ -16714,13 +16852,13 @@
         <v>115</v>
       </c>
       <c r="G320" s="1" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="H320" s="3">
         <v>0</v>
       </c>
       <c r="I320" s="2" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="J320" s="3">
         <v>113</v>
@@ -16732,7 +16870,7 @@
         <v>20</v>
       </c>
       <c r="M320" s="1" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="321" spans="1:13" ht="45" x14ac:dyDescent="0.2">
@@ -16746,22 +16884,22 @@
         <v>14</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="E321" s="1" t="s">
         <v>509</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="H321" s="3">
         <v>0</v>
       </c>
       <c r="I321" s="2" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="J321" s="3">
         <v>156</v>
@@ -16773,7 +16911,7 @@
         <v>20</v>
       </c>
       <c r="M321" s="1" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="322" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -16787,22 +16925,22 @@
         <v>14</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="E322" s="1" t="s">
         <v>509</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="G322" s="1" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="H322" s="3">
         <v>0</v>
       </c>
       <c r="I322" s="2" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="J322" s="3">
         <v>54</v>
@@ -16814,7 +16952,7 @@
         <v>20</v>
       </c>
       <c r="M322" s="1" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="323" spans="1:13" ht="60" x14ac:dyDescent="0.2">
@@ -16828,22 +16966,22 @@
         <v>14</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="E323" s="1" t="s">
         <v>134</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="G323" s="1" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="H323" s="3">
         <v>0</v>
       </c>
       <c r="I323" s="2" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="J323" s="3">
         <v>193</v>
@@ -16855,7 +16993,7 @@
         <v>20</v>
       </c>
       <c r="M323" s="1" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="324" spans="1:13" ht="45" x14ac:dyDescent="0.2">
@@ -16869,22 +17007,22 @@
         <v>14</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="G324" s="1" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="H324" s="3">
         <v>0</v>
       </c>
       <c r="I324" s="2" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="J324" s="3">
         <v>155</v>
@@ -16896,7 +17034,7 @@
         <v>20</v>
       </c>
       <c r="M324" s="1" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="325" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -16910,22 +17048,22 @@
         <v>14</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="G325" s="1" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="H325" s="3">
         <v>0</v>
       </c>
       <c r="I325" s="2" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="J325" s="3">
         <v>4</v>
@@ -16937,7 +17075,7 @@
         <v>20</v>
       </c>
       <c r="M325" s="1" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="326" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -16951,22 +17089,22 @@
         <v>14</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>406</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="G326" s="1" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="H326" s="3">
         <v>0</v>
       </c>
       <c r="I326" s="2" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="J326" s="3">
         <v>6</v>
@@ -16978,7 +17116,7 @@
         <v>20</v>
       </c>
       <c r="M326" s="1" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="327" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -16992,22 +17130,22 @@
         <v>14</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E327" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="G327" s="1" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="H327" s="3">
         <v>0</v>
       </c>
       <c r="I327" s="2" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="J327" s="3">
         <v>8</v>
@@ -17019,7 +17157,7 @@
         <v>20</v>
       </c>
       <c r="M327" s="1" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="328" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17033,16 +17171,16 @@
         <v>14</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E328" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="G328" s="1" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H328" s="3">
         <v>0</v>
@@ -17060,7 +17198,7 @@
         <v>20</v>
       </c>
       <c r="M328" s="1" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="329" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17074,22 +17212,22 @@
         <v>14</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E329" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="G329" s="1" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="H329" s="3">
         <v>0</v>
       </c>
       <c r="I329" s="2" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="J329" s="3">
         <v>10</v>
@@ -17101,7 +17239,7 @@
         <v>20</v>
       </c>
       <c r="M329" s="1" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="330" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17115,16 +17253,16 @@
         <v>14</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="G330" s="1" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="H330" s="3">
         <v>0</v>
@@ -17142,7 +17280,7 @@
         <v>20</v>
       </c>
       <c r="M330" s="1" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="331" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17156,22 +17294,22 @@
         <v>14</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E331" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="G331" s="1" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="H331" s="3">
         <v>0</v>
       </c>
       <c r="I331" s="2" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="J331" s="3">
         <v>23</v>
@@ -17183,7 +17321,7 @@
         <v>20</v>
       </c>
       <c r="M331" s="1" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="332" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17197,22 +17335,22 @@
         <v>14</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="G332" s="1" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="H332" s="3">
         <v>0</v>
       </c>
       <c r="I332" s="2" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="J332" s="3">
         <v>9</v>
@@ -17224,7 +17362,7 @@
         <v>20</v>
       </c>
       <c r="M332" s="1" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="333" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17238,16 +17376,16 @@
         <v>14</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="G333" s="1" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="H333" s="3">
         <v>0</v>
@@ -17265,7 +17403,7 @@
         <v>20</v>
       </c>
       <c r="M333" s="1" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="334" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17279,16 +17417,16 @@
         <v>14</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="G334" s="1" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="H334" s="3">
         <v>0</v>
@@ -17306,7 +17444,7 @@
         <v>20</v>
       </c>
       <c r="M334" s="1" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="335" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17320,16 +17458,16 @@
         <v>14</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E335" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="G335" s="1" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="H335" s="3">
         <v>0</v>
@@ -17347,7 +17485,7 @@
         <v>20</v>
       </c>
       <c r="M335" s="1" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="336" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17361,22 +17499,22 @@
         <v>14</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E336" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="G336" s="1" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="H336" s="3">
         <v>0</v>
       </c>
       <c r="I336" s="2" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="J336" s="3">
         <v>29</v>
@@ -17388,7 +17526,7 @@
         <v>20</v>
       </c>
       <c r="M336" s="1" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="337" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17402,16 +17540,16 @@
         <v>14</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E337" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="G337" s="1" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="H337" s="3">
         <v>0</v>
@@ -17429,7 +17567,7 @@
         <v>20</v>
       </c>
       <c r="M337" s="1" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="338" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17443,22 +17581,22 @@
         <v>14</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E338" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="G338" s="1" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="H338" s="3">
         <v>0</v>
       </c>
       <c r="I338" s="2" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="J338" s="3">
         <v>8</v>
@@ -17470,7 +17608,7 @@
         <v>20</v>
       </c>
       <c r="M338" s="1" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="339" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17484,22 +17622,22 @@
         <v>14</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E339" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F339" s="1" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="G339" s="1" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="H339" s="3">
         <v>0</v>
       </c>
       <c r="I339" s="2" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="J339" s="3">
         <v>11</v>
@@ -17511,7 +17649,7 @@
         <v>20</v>
       </c>
       <c r="M339" s="1" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="340" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17525,22 +17663,22 @@
         <v>14</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E340" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="G340" s="1" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="H340" s="3">
         <v>0</v>
       </c>
       <c r="I340" s="2" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="J340" s="3">
         <v>3</v>
@@ -17552,7 +17690,7 @@
         <v>20</v>
       </c>
       <c r="M340" s="1" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="341" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17566,22 +17704,22 @@
         <v>14</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E341" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F341" s="1" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="G341" s="1" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="H341" s="3">
         <v>0</v>
       </c>
       <c r="I341" s="2" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="J341" s="3">
         <v>3</v>
@@ -17593,7 +17731,7 @@
         <v>20</v>
       </c>
       <c r="M341" s="1" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="342" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17607,22 +17745,22 @@
         <v>14</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E342" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F342" s="1" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="G342" s="1" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="H342" s="3">
         <v>0</v>
       </c>
       <c r="I342" s="2" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="J342" s="3">
         <v>4</v>
@@ -17634,7 +17772,7 @@
         <v>20</v>
       </c>
       <c r="M342" s="1" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="343" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17648,13 +17786,13 @@
         <v>14</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E343" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F343" s="1" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="G343" s="1" t="s">
         <v>154</v>
@@ -17675,7 +17813,7 @@
         <v>20</v>
       </c>
       <c r="M343" s="1" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="344" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17689,22 +17827,22 @@
         <v>14</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F344" s="1" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="G344" s="1" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="H344" s="3">
         <v>0</v>
       </c>
       <c r="I344" s="2" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="J344" s="3">
         <v>4</v>
@@ -17716,7 +17854,7 @@
         <v>20</v>
       </c>
       <c r="M344" s="1" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="345" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17730,22 +17868,22 @@
         <v>14</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E345" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F345" s="1" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="G345" s="1" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="H345" s="3">
         <v>0</v>
       </c>
       <c r="I345" s="2" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="J345" s="3">
         <v>2</v>
@@ -17757,7 +17895,7 @@
         <v>20</v>
       </c>
       <c r="M345" s="1" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="346" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17771,22 +17909,22 @@
         <v>14</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E346" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F346" s="1" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="G346" s="1" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H346" s="3">
         <v>0</v>
       </c>
       <c r="I346" s="2" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="J346" s="3">
         <v>2</v>
@@ -17798,7 +17936,7 @@
         <v>20</v>
       </c>
       <c r="M346" s="1" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="347" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17812,22 +17950,22 @@
         <v>14</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E347" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F347" s="1" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="G347" s="1" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H347" s="3">
         <v>0</v>
       </c>
       <c r="I347" s="2" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="J347" s="3">
         <v>1</v>
@@ -17839,7 +17977,7 @@
         <v>20</v>
       </c>
       <c r="M347" s="1" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="348" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17853,22 +17991,22 @@
         <v>14</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E348" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F348" s="1" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="G348" s="1" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="H348" s="3">
         <v>0</v>
       </c>
       <c r="I348" s="2" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="J348" s="3">
         <v>8</v>
@@ -17880,7 +18018,7 @@
         <v>20</v>
       </c>
       <c r="M348" s="1" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="349" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17894,22 +18032,22 @@
         <v>14</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E349" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="G349" s="1" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="H349" s="3">
         <v>0</v>
       </c>
       <c r="I349" s="2" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="J349" s="3">
         <v>3</v>
@@ -17921,7 +18059,7 @@
         <v>20</v>
       </c>
       <c r="M349" s="1" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="350" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17935,16 +18073,16 @@
         <v>14</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E350" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F350" s="1" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="G350" s="1" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H350" s="3">
         <v>0</v>
@@ -17962,7 +18100,7 @@
         <v>20</v>
       </c>
       <c r="M350" s="1" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="351" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -17976,22 +18114,22 @@
         <v>14</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E351" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F351" s="1" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="G351" s="1" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="H351" s="3">
         <v>0</v>
       </c>
       <c r="I351" s="2" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="J351" s="3">
         <v>3</v>
@@ -18003,7 +18141,7 @@
         <v>20</v>
       </c>
       <c r="M351" s="1" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="352" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18017,22 +18155,22 @@
         <v>14</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E352" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F352" s="1" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="G352" s="1" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="H352" s="3">
         <v>0</v>
       </c>
       <c r="I352" s="2" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="J352" s="3">
         <v>10</v>
@@ -18044,7 +18182,7 @@
         <v>20</v>
       </c>
       <c r="M352" s="1" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="353" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18058,22 +18196,22 @@
         <v>14</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E353" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F353" s="1" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="G353" s="1" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="H353" s="3">
         <v>0</v>
       </c>
       <c r="I353" s="2" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="J353" s="3">
         <v>3</v>
@@ -18085,7 +18223,7 @@
         <v>20</v>
       </c>
       <c r="M353" s="1" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="354" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18099,16 +18237,16 @@
         <v>14</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E354" s="1" t="s">
         <v>67</v>
       </c>
       <c r="F354" s="1" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="G354" s="1" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="H354" s="3">
         <v>0</v>
@@ -18126,7 +18264,7 @@
         <v>20</v>
       </c>
       <c r="M354" s="1" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="355" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18140,22 +18278,22 @@
         <v>14</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E355" s="1" t="s">
         <v>67</v>
       </c>
       <c r="F355" s="1" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="G355" s="1" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="H355" s="3">
         <v>0</v>
       </c>
       <c r="I355" s="2" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="J355" s="3">
         <v>4</v>
@@ -18167,7 +18305,7 @@
         <v>20</v>
       </c>
       <c r="M355" s="1" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="356" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18181,22 +18319,22 @@
         <v>14</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E356" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F356" s="1" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="G356" s="1" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="H356" s="3">
         <v>0</v>
       </c>
       <c r="I356" s="2" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="J356" s="3">
         <v>23</v>
@@ -18208,7 +18346,7 @@
         <v>20</v>
       </c>
       <c r="M356" s="1" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="357" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18222,22 +18360,22 @@
         <v>14</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E357" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F357" s="1" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="G357" s="1" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="H357" s="3">
         <v>0</v>
       </c>
       <c r="I357" s="2" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="J357" s="3">
         <v>4</v>
@@ -18249,7 +18387,7 @@
         <v>20</v>
       </c>
       <c r="M357" s="1" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="358" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18263,22 +18401,22 @@
         <v>14</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E358" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F358" s="1" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="G358" s="1" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="H358" s="3">
         <v>0</v>
       </c>
       <c r="I358" s="2" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="J358" s="3">
         <v>9</v>
@@ -18290,7 +18428,7 @@
         <v>20</v>
       </c>
       <c r="M358" s="1" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="359" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18304,22 +18442,22 @@
         <v>14</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E359" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F359" s="1" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="G359" s="1" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="H359" s="3">
         <v>0</v>
       </c>
       <c r="I359" s="2" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="J359" s="3">
         <v>3</v>
@@ -18331,7 +18469,7 @@
         <v>20</v>
       </c>
       <c r="M359" s="1" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="360" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18345,16 +18483,16 @@
         <v>14</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E360" s="1" t="s">
         <v>76</v>
       </c>
       <c r="F360" s="1" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="G360" s="1" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="H360" s="3">
         <v>0</v>
@@ -18372,7 +18510,7 @@
         <v>20</v>
       </c>
       <c r="M360" s="1" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="361" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18386,22 +18524,22 @@
         <v>14</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E361" s="1" t="s">
         <v>76</v>
       </c>
       <c r="F361" s="1" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="G361" s="1" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="H361" s="3">
         <v>0</v>
       </c>
       <c r="I361" s="2" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="J361" s="3">
         <v>3</v>
@@ -18413,7 +18551,7 @@
         <v>20</v>
       </c>
       <c r="M361" s="1" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="362" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18427,16 +18565,16 @@
         <v>14</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E362" s="1" t="s">
         <v>331</v>
       </c>
       <c r="F362" s="1" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="G362" s="1" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="H362" s="3">
         <v>0</v>
@@ -18454,7 +18592,7 @@
         <v>20</v>
       </c>
       <c r="M362" s="1" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="363" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18468,13 +18606,13 @@
         <v>14</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E363" s="1" t="s">
         <v>331</v>
       </c>
       <c r="F363" s="1" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="G363" s="1" t="s">
         <v>154</v>
@@ -18495,7 +18633,7 @@
         <v>20</v>
       </c>
       <c r="M363" s="1" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="364" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18509,16 +18647,16 @@
         <v>14</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E364" s="1" t="s">
         <v>332</v>
       </c>
       <c r="F364" s="1" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="G364" s="1" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="H364" s="3">
         <v>0</v>
@@ -18536,7 +18674,7 @@
         <v>20</v>
       </c>
       <c r="M364" s="1" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="365" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18550,22 +18688,22 @@
         <v>14</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E365" s="1" t="s">
         <v>332</v>
       </c>
       <c r="F365" s="1" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="G365" s="1" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="H365" s="3">
         <v>0</v>
       </c>
       <c r="I365" s="2" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="J365" s="3">
         <v>3</v>
@@ -18577,7 +18715,7 @@
         <v>20</v>
       </c>
       <c r="M365" s="1" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="366" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18591,22 +18729,22 @@
         <v>14</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E366" s="1" t="s">
         <v>335</v>
       </c>
       <c r="F366" s="1" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="G366" s="1" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="H366" s="3">
         <v>0</v>
       </c>
       <c r="I366" s="2" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="J366" s="3">
         <v>29</v>
@@ -18618,7 +18756,7 @@
         <v>20</v>
       </c>
       <c r="M366" s="1" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="367" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18632,22 +18770,22 @@
         <v>14</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E367" s="1" t="s">
         <v>335</v>
       </c>
       <c r="F367" s="1" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="G367" s="1" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="H367" s="3">
         <v>0</v>
       </c>
       <c r="I367" s="2" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="J367" s="3">
         <v>4</v>
@@ -18659,7 +18797,7 @@
         <v>20</v>
       </c>
       <c r="M367" s="1" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="368" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18673,16 +18811,16 @@
         <v>14</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E368" s="1" t="s">
         <v>339</v>
       </c>
       <c r="F368" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="G368" s="1" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="H368" s="3">
         <v>0</v>
@@ -18700,7 +18838,7 @@
         <v>20</v>
       </c>
       <c r="M368" s="1" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="369" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18714,22 +18852,22 @@
         <v>14</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E369" s="1" t="s">
         <v>339</v>
       </c>
       <c r="F369" s="1" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="G369" s="1" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="H369" s="3">
         <v>0</v>
       </c>
       <c r="I369" s="2" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="J369" s="3">
         <v>2</v>
@@ -18741,7 +18879,7 @@
         <v>20</v>
       </c>
       <c r="M369" s="1" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="370" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18755,22 +18893,22 @@
         <v>14</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E370" s="1" t="s">
         <v>342</v>
       </c>
       <c r="F370" s="1" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="G370" s="1" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="H370" s="3">
         <v>0</v>
       </c>
       <c r="I370" s="2" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="J370" s="3">
         <v>8</v>
@@ -18782,7 +18920,7 @@
         <v>20</v>
       </c>
       <c r="M370" s="1" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="371" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18796,22 +18934,22 @@
         <v>14</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E371" s="1" t="s">
         <v>342</v>
       </c>
       <c r="F371" s="1" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="G371" s="1" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H371" s="3">
         <v>0</v>
       </c>
       <c r="I371" s="2" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="J371" s="3">
         <v>2</v>
@@ -18823,7 +18961,7 @@
         <v>20</v>
       </c>
       <c r="M371" s="1" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="372" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18837,22 +18975,22 @@
         <v>14</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E372" s="1" t="s">
         <v>343</v>
       </c>
       <c r="F372" s="1" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="G372" s="1" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="H372" s="3">
         <v>0</v>
       </c>
       <c r="I372" s="2" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="J372" s="3">
         <v>11</v>
@@ -18864,7 +19002,7 @@
         <v>20</v>
       </c>
       <c r="M372" s="1" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="373" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18878,22 +19016,22 @@
         <v>14</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E373" s="1" t="s">
         <v>343</v>
       </c>
       <c r="F373" s="1" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="G373" s="1" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="H373" s="3">
         <v>0</v>
       </c>
       <c r="I373" s="2" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="J373" s="3">
         <v>1</v>
@@ -18905,7 +19043,7 @@
         <v>20</v>
       </c>
       <c r="M373" s="1" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="374" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -18919,22 +19057,22 @@
         <v>14</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E374" s="1" t="s">
         <v>77</v>
       </c>
       <c r="F374" s="1" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="G374" s="1" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="H374" s="3">
         <v>0</v>
       </c>
       <c r="I374" s="2" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="J374" s="3">
         <v>20</v>
@@ -18946,7 +19084,7 @@
         <v>20</v>
       </c>
       <c r="M374" s="1" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="375" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -18960,22 +19098,22 @@
         <v>14</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E375" s="1" t="s">
         <v>199</v>
       </c>
       <c r="F375" s="1" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="G375" s="1" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="H375" s="3">
         <v>0</v>
       </c>
       <c r="I375" s="2" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="J375" s="3">
         <v>4</v>
@@ -18987,7 +19125,7 @@
         <v>20</v>
       </c>
       <c r="M375" s="1" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row r="376" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19001,22 +19139,22 @@
         <v>14</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E376" s="1" t="s">
         <v>82</v>
       </c>
       <c r="F376" s="1" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="G376" s="1" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="H376" s="3">
         <v>0</v>
       </c>
       <c r="I376" s="2" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="J376" s="3">
         <v>6</v>
@@ -19028,7 +19166,7 @@
         <v>20</v>
       </c>
       <c r="M376" s="1" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row r="377" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19042,22 +19180,22 @@
         <v>14</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E377" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F377" s="1" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="G377" s="1" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="H377" s="3">
         <v>0</v>
       </c>
       <c r="I377" s="2" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="J377" s="3">
         <v>6</v>
@@ -19069,7 +19207,7 @@
         <v>20</v>
       </c>
       <c r="M377" s="1" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row r="378" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19083,22 +19221,22 @@
         <v>14</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E378" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F378" s="1" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="G378" s="1" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="H378" s="3">
         <v>0</v>
       </c>
       <c r="I378" s="2" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="J378" s="3">
         <v>9</v>
@@ -19110,7 +19248,7 @@
         <v>20</v>
       </c>
       <c r="M378" s="1" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row r="379" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19124,22 +19262,22 @@
         <v>14</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E379" s="1" t="s">
         <v>97</v>
       </c>
       <c r="F379" s="1" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="G379" s="1" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="H379" s="3">
         <v>0</v>
       </c>
       <c r="I379" s="2" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="J379" s="3">
         <v>31</v>
@@ -19151,7 +19289,7 @@
         <v>20</v>
       </c>
       <c r="M379" s="1" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row r="380" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19165,22 +19303,22 @@
         <v>14</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E380" s="1" t="s">
         <v>100</v>
       </c>
       <c r="F380" s="1" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="G380" s="1" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="H380" s="3">
         <v>0</v>
       </c>
       <c r="I380" s="2" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="J380" s="3">
         <v>11</v>
@@ -19192,7 +19330,7 @@
         <v>20</v>
       </c>
       <c r="M380" s="1" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="381" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19206,16 +19344,16 @@
         <v>14</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E381" s="1" t="s">
         <v>104</v>
       </c>
       <c r="F381" s="1" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="G381" s="1" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="H381" s="3">
         <v>0</v>
@@ -19233,7 +19371,7 @@
         <v>20</v>
       </c>
       <c r="M381" s="1" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="382" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -19247,22 +19385,22 @@
         <v>14</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E382" s="1" t="s">
         <v>109</v>
       </c>
       <c r="F382" s="1" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="G382" s="1" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="H382" s="3">
         <v>0</v>
       </c>
       <c r="I382" s="2" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="J382" s="3">
         <v>41</v>
@@ -19274,7 +19412,7 @@
         <v>20</v>
       </c>
       <c r="M382" s="1" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="383" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19288,22 +19426,22 @@
         <v>14</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E383" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="F383" s="1" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="G383" s="1" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="H383" s="3">
         <v>0</v>
       </c>
       <c r="I383" s="2" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="J383" s="3">
         <v>23</v>
@@ -19315,7 +19453,7 @@
         <v>20</v>
       </c>
       <c r="M383" s="1" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="384" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19329,22 +19467,22 @@
         <v>14</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E384" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="F384" s="1" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="G384" s="1" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="H384" s="3">
         <v>0</v>
       </c>
       <c r="I384" s="2" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="J384" s="3">
         <v>12</v>
@@ -19356,7 +19494,7 @@
         <v>20</v>
       </c>
       <c r="M384" s="1" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="385" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19370,22 +19508,22 @@
         <v>14</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E385" s="1" t="s">
         <v>109</v>
       </c>
       <c r="F385" s="1" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="G385" s="1" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="H385" s="3">
         <v>0</v>
       </c>
       <c r="I385" s="2" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="J385" s="3">
         <v>32</v>
@@ -19397,7 +19535,7 @@
         <v>20</v>
       </c>
       <c r="M385" s="1" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="386" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19411,22 +19549,22 @@
         <v>14</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E386" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="F386" s="1" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="G386" s="1" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="H386" s="3">
         <v>0</v>
       </c>
       <c r="I386" s="2" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="J386" s="3">
         <v>37</v>
@@ -19438,7 +19576,7 @@
         <v>20</v>
       </c>
       <c r="M386" s="1" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="387" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -19452,22 +19590,22 @@
         <v>14</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E387" s="1" t="s">
         <v>109</v>
       </c>
       <c r="F387" s="1" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="G387" s="1" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="H387" s="3">
         <v>0</v>
       </c>
       <c r="I387" s="2" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="J387" s="3">
         <v>25</v>
@@ -19479,7 +19617,7 @@
         <v>20</v>
       </c>
       <c r="M387" s="1" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="388" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19493,22 +19631,22 @@
         <v>14</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E388" s="1" t="s">
         <v>109</v>
       </c>
       <c r="F388" s="1" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="G388" s="1" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="H388" s="3">
         <v>0</v>
       </c>
       <c r="I388" s="2" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="J388" s="3">
         <v>21</v>
@@ -19520,7 +19658,7 @@
         <v>20</v>
       </c>
       <c r="M388" s="1" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="389" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19534,22 +19672,22 @@
         <v>14</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E389" s="1" t="s">
         <v>109</v>
       </c>
       <c r="F389" s="1" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="G389" s="1" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="H389" s="3">
         <v>0</v>
       </c>
       <c r="I389" s="2" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="J389" s="3">
         <v>19</v>
@@ -19561,7 +19699,7 @@
         <v>20</v>
       </c>
       <c r="M389" s="1" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="390" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -19575,22 +19713,22 @@
         <v>14</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E390" s="1" t="s">
         <v>109</v>
       </c>
       <c r="F390" s="1" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="G390" s="1" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="H390" s="3">
         <v>0</v>
       </c>
       <c r="I390" s="2" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="J390" s="3">
         <v>36</v>
@@ -19602,7 +19740,7 @@
         <v>20</v>
       </c>
       <c r="M390" s="1" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="391" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19616,22 +19754,22 @@
         <v>14</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E391" s="1" t="s">
         <v>109</v>
       </c>
       <c r="F391" s="1" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="G391" s="1" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="H391" s="3">
         <v>0</v>
       </c>
       <c r="I391" s="2" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="J391" s="3">
         <v>14</v>
@@ -19643,7 +19781,7 @@
         <v>20</v>
       </c>
       <c r="M391" s="1" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="392" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19657,22 +19795,22 @@
         <v>14</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E392" s="1" t="s">
         <v>492</v>
       </c>
       <c r="F392" s="1" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="G392" s="1" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="H392" s="3">
         <v>0</v>
       </c>
       <c r="I392" s="2" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="J392" s="3">
         <v>4</v>
@@ -19684,7 +19822,7 @@
         <v>20</v>
       </c>
       <c r="M392" s="1" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="393" spans="1:13" ht="45" x14ac:dyDescent="0.2">
@@ -19692,28 +19830,28 @@
         <v>13</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="E393" s="1" t="s">
         <v>134</v>
       </c>
       <c r="F393" s="1" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="G393" s="1" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="H393" s="3">
         <v>0</v>
       </c>
       <c r="I393" s="2" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="J393" s="3">
         <v>135</v>
@@ -19725,7 +19863,7 @@
         <v>20</v>
       </c>
       <c r="M393" s="1" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
     </row>
     <row r="394" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19739,22 +19877,22 @@
         <v>14</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="E394" s="1" t="s">
         <v>114</v>
       </c>
       <c r="F394" s="1" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="G394" s="1" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="H394" s="3">
         <v>0</v>
       </c>
       <c r="I394" s="2" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="J394" s="3">
         <v>14</v>
@@ -19766,7 +19904,7 @@
         <v>20</v>
       </c>
       <c r="M394" s="1" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
     </row>
     <row r="395" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19780,22 +19918,22 @@
         <v>14</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="E395" s="1" t="s">
         <v>114</v>
       </c>
       <c r="F395" s="1" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="G395" s="1" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="H395" s="3">
         <v>0</v>
       </c>
       <c r="I395" s="2" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="J395" s="3">
         <v>10</v>
@@ -19807,7 +19945,7 @@
         <v>20</v>
       </c>
       <c r="M395" s="1" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
     </row>
     <row r="396" spans="1:13" ht="75" x14ac:dyDescent="0.2">
@@ -19821,22 +19959,22 @@
         <v>14</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E396" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F396" s="1" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="G396" s="1" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="H396" s="3">
         <v>0</v>
       </c>
       <c r="I396" s="2" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="J396" s="3">
         <v>244</v>
@@ -19848,7 +19986,7 @@
         <v>20</v>
       </c>
       <c r="M396" s="1" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
     </row>
     <row r="397" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19862,22 +20000,22 @@
         <v>14</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E397" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F397" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="G397" s="1" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="H397" s="3">
         <v>0</v>
       </c>
       <c r="I397" s="2" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="J397" s="3">
         <v>4</v>
@@ -19889,7 +20027,7 @@
         <v>20</v>
       </c>
       <c r="M397" s="1" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
     </row>
     <row r="398" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19903,22 +20041,22 @@
         <v>14</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E398" s="1" t="s">
         <v>406</v>
       </c>
       <c r="F398" s="1" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="G398" s="1" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="H398" s="3">
         <v>0</v>
       </c>
       <c r="I398" s="2" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="J398" s="3">
         <v>7</v>
@@ -19930,7 +20068,7 @@
         <v>20</v>
       </c>
       <c r="M398" s="1" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
     </row>
     <row r="399" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19944,22 +20082,22 @@
         <v>14</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E399" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F399" s="1" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="G399" s="1" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="H399" s="3">
         <v>0</v>
       </c>
       <c r="I399" s="2" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="J399" s="3">
         <v>11</v>
@@ -19971,7 +20109,7 @@
         <v>20</v>
       </c>
       <c r="M399" s="1" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
     </row>
     <row r="400" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -19985,22 +20123,22 @@
         <v>14</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E400" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F400" s="1" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="G400" s="1" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="H400" s="3">
         <v>0</v>
       </c>
       <c r="I400" s="2" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="J400" s="3">
         <v>27</v>
@@ -20012,7 +20150,7 @@
         <v>20</v>
       </c>
       <c r="M400" s="1" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
     </row>
     <row r="401" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20026,16 +20164,16 @@
         <v>14</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E401" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F401" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="G401" s="1" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="H401" s="3">
         <v>0</v>
@@ -20053,7 +20191,7 @@
         <v>20</v>
       </c>
       <c r="M401" s="1" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
     </row>
     <row r="402" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20067,16 +20205,16 @@
         <v>14</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E402" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F402" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="G402" s="1" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="H402" s="3">
         <v>0</v>
@@ -20094,7 +20232,7 @@
         <v>20</v>
       </c>
       <c r="M402" s="1" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
     </row>
     <row r="403" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20108,22 +20246,22 @@
         <v>14</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E403" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F403" s="1" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="G403" s="1" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="H403" s="3">
         <v>0</v>
       </c>
       <c r="I403" s="2" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="J403" s="3">
         <v>30</v>
@@ -20135,7 +20273,7 @@
         <v>20</v>
       </c>
       <c r="M403" s="1" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
     </row>
     <row r="404" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20149,22 +20287,22 @@
         <v>14</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E404" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F404" s="1" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="G404" s="1" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="H404" s="3">
         <v>0</v>
       </c>
       <c r="I404" s="2" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="J404" s="3">
         <v>8</v>
@@ -20176,7 +20314,7 @@
         <v>20</v>
       </c>
       <c r="M404" s="1" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
     </row>
     <row r="405" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20190,16 +20328,16 @@
         <v>14</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E405" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F405" s="1" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="G405" s="1" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="H405" s="3">
         <v>0</v>
@@ -20217,7 +20355,7 @@
         <v>20</v>
       </c>
       <c r="M405" s="1" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
     </row>
     <row r="406" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -20231,22 +20369,22 @@
         <v>14</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E406" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F406" s="1" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="G406" s="1" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H406" s="3">
         <v>0</v>
       </c>
       <c r="I406" s="2" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="J406" s="3">
         <v>30</v>
@@ -20258,7 +20396,7 @@
         <v>20</v>
       </c>
       <c r="M406" s="1" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
     </row>
     <row r="407" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20272,16 +20410,16 @@
         <v>14</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E407" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F407" s="1" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="G407" s="1" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="H407" s="3">
         <v>0</v>
@@ -20299,7 +20437,7 @@
         <v>20</v>
       </c>
       <c r="M407" s="1" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
     </row>
     <row r="408" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -20313,22 +20451,22 @@
         <v>14</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E408" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F408" s="1" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="G408" s="1" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="H408" s="3">
         <v>0</v>
       </c>
       <c r="I408" s="2" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="J408" s="3">
         <v>26</v>
@@ -20340,7 +20478,7 @@
         <v>20</v>
       </c>
       <c r="M408" s="1" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
     </row>
     <row r="409" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20354,22 +20492,22 @@
         <v>14</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E409" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F409" s="1" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="G409" s="1" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="H409" s="3">
         <v>0</v>
       </c>
       <c r="I409" s="2" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="J409" s="3">
         <v>11</v>
@@ -20381,7 +20519,7 @@
         <v>20</v>
       </c>
       <c r="M409" s="1" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
     </row>
     <row r="410" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20395,22 +20533,22 @@
         <v>14</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E410" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F410" s="1" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="G410" s="1" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="H410" s="3">
         <v>0</v>
       </c>
       <c r="I410" s="2" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="J410" s="3">
         <v>27</v>
@@ -20422,7 +20560,7 @@
         <v>20</v>
       </c>
       <c r="M410" s="1" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
     </row>
     <row r="411" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20436,16 +20574,16 @@
         <v>14</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E411" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F411" s="1" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="G411" s="1" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="H411" s="3">
         <v>0</v>
@@ -20463,7 +20601,7 @@
         <v>20</v>
       </c>
       <c r="M411" s="1" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
     </row>
     <row r="412" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20477,16 +20615,16 @@
         <v>14</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E412" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F412" s="1" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="G412" s="1" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="H412" s="3">
         <v>0</v>
@@ -20504,7 +20642,7 @@
         <v>20</v>
       </c>
       <c r="M412" s="1" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
     </row>
     <row r="413" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20518,22 +20656,22 @@
         <v>14</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E413" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F413" s="1" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="G413" s="1" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="H413" s="3">
         <v>0</v>
       </c>
       <c r="I413" s="2" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="J413" s="3">
         <v>30</v>
@@ -20545,7 +20683,7 @@
         <v>20</v>
       </c>
       <c r="M413" s="1" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
     </row>
     <row r="414" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20559,22 +20697,22 @@
         <v>14</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E414" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F414" s="1" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="G414" s="1" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="H414" s="3">
         <v>0</v>
       </c>
       <c r="I414" s="2" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="J414" s="3">
         <v>8</v>
@@ -20586,7 +20724,7 @@
         <v>20</v>
       </c>
       <c r="M414" s="1" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
     </row>
     <row r="415" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20600,22 +20738,22 @@
         <v>14</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E415" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F415" s="1" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="G415" s="1" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="H415" s="3">
         <v>0</v>
       </c>
       <c r="I415" s="2" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="J415" s="3">
         <v>11</v>
@@ -20627,7 +20765,7 @@
         <v>20</v>
       </c>
       <c r="M415" s="1" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
     </row>
     <row r="416" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20641,7 +20779,7 @@
         <v>14</v>
       </c>
       <c r="D416" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E416" s="1" t="s">
         <v>61</v>
@@ -20650,13 +20788,13 @@
         <v>385</v>
       </c>
       <c r="G416" s="1" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="H416" s="3">
         <v>0</v>
       </c>
       <c r="I416" s="2" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="J416" s="3">
         <v>27</v>
@@ -20668,7 +20806,7 @@
         <v>20</v>
       </c>
       <c r="M416" s="1" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
     </row>
     <row r="417" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20682,16 +20820,16 @@
         <v>14</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E417" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F417" s="1" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="G417" s="1" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="H417" s="3">
         <v>0</v>
@@ -20709,7 +20847,7 @@
         <v>20</v>
       </c>
       <c r="M417" s="1" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
     </row>
     <row r="418" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -20723,22 +20861,22 @@
         <v>14</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E418" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F418" s="1" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="G418" s="1" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="H418" s="3">
         <v>0</v>
       </c>
       <c r="I418" s="2" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="J418" s="3">
         <v>30</v>
@@ -20750,7 +20888,7 @@
         <v>20</v>
       </c>
       <c r="M418" s="1" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
     </row>
     <row r="419" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20764,16 +20902,16 @@
         <v>14</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E419" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F419" s="1" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="G419" s="1" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="H419" s="3">
         <v>0</v>
@@ -20791,7 +20929,7 @@
         <v>20</v>
       </c>
       <c r="M419" s="1" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
     </row>
     <row r="420" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20805,16 +20943,16 @@
         <v>14</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E420" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F420" s="1" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="G420" s="1" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="H420" s="3">
         <v>0</v>
@@ -20832,7 +20970,7 @@
         <v>20</v>
       </c>
       <c r="M420" s="1" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
     </row>
     <row r="421" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -20846,22 +20984,22 @@
         <v>14</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E421" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F421" s="1" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="G421" s="1" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="H421" s="3">
         <v>0</v>
       </c>
       <c r="I421" s="2" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="J421" s="3">
         <v>25</v>
@@ -20873,7 +21011,7 @@
         <v>20</v>
       </c>
       <c r="M421" s="1" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
     </row>
     <row r="422" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20887,22 +21025,22 @@
         <v>14</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E422" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F422" s="1" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="G422" s="1" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="H422" s="3">
         <v>0</v>
       </c>
       <c r="I422" s="2" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="J422" s="3">
         <v>8</v>
@@ -20914,7 +21052,7 @@
         <v>20</v>
       </c>
       <c r="M422" s="1" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
     </row>
     <row r="423" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20928,22 +21066,22 @@
         <v>14</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E423" s="1" t="s">
         <v>77</v>
       </c>
       <c r="F423" s="1" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="G423" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="H423" s="3">
         <v>0</v>
       </c>
       <c r="I423" s="2" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="J423" s="3">
         <v>22</v>
@@ -20955,7 +21093,7 @@
         <v>20</v>
       </c>
       <c r="M423" s="1" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
     </row>
     <row r="424" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -20969,22 +21107,22 @@
         <v>14</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E424" s="1" t="s">
         <v>77</v>
       </c>
       <c r="F424" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="G424" s="1" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="H424" s="3">
         <v>0</v>
       </c>
       <c r="I424" s="2" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="J424" s="3">
         <v>21</v>
@@ -20996,7 +21134,7 @@
         <v>20</v>
       </c>
       <c r="M424" s="1" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
     </row>
     <row r="425" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -21010,22 +21148,22 @@
         <v>14</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E425" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F425" s="1" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="G425" s="1" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="H425" s="3">
         <v>0</v>
       </c>
       <c r="I425" s="2" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="J425" s="3">
         <v>22</v>
@@ -21037,7 +21175,7 @@
         <v>20</v>
       </c>
       <c r="M425" s="1" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
     </row>
     <row r="426" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -21051,22 +21189,22 @@
         <v>14</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E426" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F426" s="1" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="G426" s="1" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="H426" s="3">
         <v>0</v>
       </c>
       <c r="I426" s="2" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="J426" s="3">
         <v>21</v>
@@ -21078,7 +21216,7 @@
         <v>20</v>
       </c>
       <c r="M426" s="1" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
     </row>
     <row r="427" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -21092,22 +21230,22 @@
         <v>14</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E427" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F427" s="1" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="G427" s="1" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="H427" s="3">
         <v>0</v>
       </c>
       <c r="I427" s="2" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="J427" s="3">
         <v>6</v>
@@ -21119,7 +21257,7 @@
         <v>20</v>
       </c>
       <c r="M427" s="1" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
     </row>
     <row r="428" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -21133,22 +21271,22 @@
         <v>14</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E428" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F428" s="1" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="G428" s="1" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="H428" s="3">
         <v>0</v>
       </c>
       <c r="I428" s="2" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="J428" s="3">
         <v>9</v>
@@ -21160,7 +21298,7 @@
         <v>20</v>
       </c>
       <c r="M428" s="1" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
     </row>
     <row r="429" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -21174,22 +21312,22 @@
         <v>14</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E429" s="1" t="s">
         <v>97</v>
       </c>
       <c r="F429" s="1" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="G429" s="1" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="H429" s="3">
         <v>0</v>
       </c>
       <c r="I429" s="2" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="J429" s="3">
         <v>14</v>
@@ -21201,7 +21339,7 @@
         <v>20</v>
       </c>
       <c r="M429" s="1" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
     </row>
     <row r="430" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -21215,22 +21353,22 @@
         <v>14</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E430" s="1" t="s">
         <v>100</v>
       </c>
       <c r="F430" s="1" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="G430" s="1" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="H430" s="3">
         <v>0</v>
       </c>
       <c r="I430" s="2" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="J430" s="3">
         <v>11</v>
@@ -21242,7 +21380,7 @@
         <v>20</v>
       </c>
       <c r="M430" s="1" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
     </row>
     <row r="431" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -21256,22 +21394,22 @@
         <v>14</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E431" s="1" t="s">
         <v>104</v>
       </c>
       <c r="F431" s="1" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="G431" s="1" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="H431" s="3">
         <v>0</v>
       </c>
       <c r="I431" s="2" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="J431" s="3">
         <v>5</v>
@@ -21283,7 +21421,7 @@
         <v>20</v>
       </c>
       <c r="M431" s="1" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
     </row>
     <row r="432" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -21297,22 +21435,22 @@
         <v>14</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E432" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="F432" s="1" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="G432" s="1" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="H432" s="3">
         <v>0</v>
       </c>
       <c r="I432" s="2" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="J432" s="3">
         <v>15</v>
@@ -21324,7 +21462,7 @@
         <v>20</v>
       </c>
       <c r="M432" s="1" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
     </row>
     <row r="433" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -21338,22 +21476,22 @@
         <v>14</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E433" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="F433" s="1" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="G433" s="1" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="H433" s="3">
         <v>0</v>
       </c>
       <c r="I433" s="2" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="J433" s="3">
         <v>11</v>
@@ -21365,7 +21503,7 @@
         <v>20</v>
       </c>
       <c r="M433" s="1" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
     </row>
     <row r="434" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -21379,22 +21517,22 @@
         <v>14</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E434" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="F434" s="1" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="G434" s="1" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="H434" s="3">
         <v>0</v>
       </c>
       <c r="I434" s="2" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="J434" s="3">
         <v>92</v>
@@ -21406,7 +21544,7 @@
         <v>20</v>
       </c>
       <c r="M434" s="1" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
     </row>
     <row r="435" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -21420,22 +21558,22 @@
         <v>14</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E435" s="1" t="s">
         <v>109</v>
       </c>
       <c r="F435" s="1" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="G435" s="1" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="H435" s="3">
         <v>0</v>
       </c>
       <c r="I435" s="2" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="J435" s="3">
         <v>39</v>
@@ -21447,7 +21585,7 @@
         <v>20</v>
       </c>
       <c r="M435" s="1" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
     </row>
     <row r="436" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -21461,22 +21599,22 @@
         <v>14</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E436" s="1" t="s">
         <v>109</v>
       </c>
       <c r="F436" s="1" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="G436" s="1" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="H436" s="3">
         <v>0</v>
       </c>
       <c r="I436" s="2" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="J436" s="3">
         <v>8</v>
@@ -21488,7 +21626,7 @@
         <v>20</v>
       </c>
       <c r="M436" s="1" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
     </row>
     <row r="437" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -21502,22 +21640,22 @@
         <v>14</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E437" s="1" t="s">
         <v>109</v>
       </c>
       <c r="F437" s="1" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="G437" s="1" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="H437" s="3">
         <v>0</v>
       </c>
       <c r="I437" s="2" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="J437" s="3">
         <v>5</v>
@@ -21529,7 +21667,7 @@
         <v>20</v>
       </c>
       <c r="M437" s="1" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
     </row>
     <row r="438" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -21543,22 +21681,22 @@
         <v>14</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E438" s="1" t="s">
         <v>109</v>
       </c>
       <c r="F438" s="1" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="G438" s="1" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="H438" s="3">
         <v>0</v>
       </c>
       <c r="I438" s="2" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="J438" s="3">
         <v>27</v>
@@ -21570,7 +21708,7 @@
         <v>20</v>
       </c>
       <c r="M438" s="1" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
     </row>
     <row r="439" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -21584,22 +21722,22 @@
         <v>14</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E439" s="1" t="s">
         <v>109</v>
       </c>
       <c r="F439" s="1" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="G439" s="1" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="H439" s="3">
         <v>0</v>
       </c>
       <c r="I439" s="2" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="J439" s="3">
         <v>23</v>
@@ -21611,7 +21749,7 @@
         <v>20</v>
       </c>
       <c r="M439" s="1" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
     </row>
     <row r="440" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -21625,22 +21763,22 @@
         <v>14</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E440" s="1" t="s">
         <v>492</v>
       </c>
       <c r="F440" s="1" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="G440" s="1" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="H440" s="3">
         <v>0</v>
       </c>
       <c r="I440" s="2" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="J440" s="3">
         <v>19</v>
@@ -21652,7 +21790,7 @@
         <v>20</v>
       </c>
       <c r="M440" s="1" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
     </row>
     <row r="441" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -21666,22 +21804,22 @@
         <v>14</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="E441" s="1" t="s">
         <v>114</v>
       </c>
       <c r="F441" s="1" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="G441" s="1" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="H441" s="3">
         <v>0</v>
       </c>
       <c r="I441" s="2" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="J441" s="3">
         <v>9</v>
@@ -21693,7 +21831,7 @@
         <v>20</v>
       </c>
       <c r="M441" s="1" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
     </row>
     <row r="442" spans="1:13" ht="60" x14ac:dyDescent="0.2">
@@ -21707,22 +21845,22 @@
         <v>14</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="E442" s="1" t="s">
         <v>134</v>
       </c>
       <c r="F442" s="1" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="G442" s="1" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="H442" s="3">
         <v>0</v>
       </c>
       <c r="I442" s="2" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="J442" s="3">
         <v>184</v>
@@ -21734,7 +21872,7 @@
         <v>20</v>
       </c>
       <c r="M442" s="1" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="443" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -21748,22 +21886,22 @@
         <v>14</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="E443" s="1" t="s">
         <v>114</v>
       </c>
       <c r="F443" s="1" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="G443" s="1" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="H443" s="3">
         <v>0</v>
       </c>
       <c r="I443" s="2" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="J443" s="3">
         <v>42</v>
@@ -21775,7 +21913,7 @@
         <v>20</v>
       </c>
       <c r="M443" s="1" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="444" spans="1:13" ht="75" x14ac:dyDescent="0.2">
@@ -21789,22 +21927,22 @@
         <v>14</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="E444" s="1" t="s">
         <v>134</v>
       </c>
       <c r="F444" s="1" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="G444" s="1" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="H444" s="3">
         <v>0</v>
       </c>
       <c r="I444" s="2" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="J444" s="3">
         <v>211</v>
@@ -21816,7 +21954,1729 @@
         <v>20</v>
       </c>
       <c r="M444" s="1" t="s">
-        <v>1014</v>
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="445" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A445" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D445" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E445" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F445" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G445" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H445" s="3">
+        <v>0</v>
+      </c>
+      <c r="I445" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J445" s="3">
+        <v>4</v>
+      </c>
+      <c r="K445" s="4">
+        <v>2.2588660492432799E-2</v>
+      </c>
+      <c r="L445" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="M445" s="1" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="446" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A446" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D446" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E446" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F446" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G446" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H446" s="3">
+        <v>0</v>
+      </c>
+      <c r="I446" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J446" s="3">
+        <v>4</v>
+      </c>
+      <c r="K446" s="4">
+        <v>2.2588660492432799E-2</v>
+      </c>
+      <c r="L446" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="M446" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="447" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A447" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D447" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E447" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F447" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G447" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H447" s="3">
+        <v>0</v>
+      </c>
+      <c r="I447" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J447" s="3">
+        <v>4</v>
+      </c>
+      <c r="K447" s="4">
+        <v>2.2588660492432799E-2</v>
+      </c>
+      <c r="L447" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="M447" s="1" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="448" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A448" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D448" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E448" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F448" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G448" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H448" s="3">
+        <v>0</v>
+      </c>
+      <c r="I448" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J448" s="3">
+        <v>4</v>
+      </c>
+      <c r="K448" s="4">
+        <v>2.2588660492432799E-2</v>
+      </c>
+      <c r="L448" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="M448" s="1" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="449" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A449" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D449" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E449" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F449" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G449" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H449" s="3">
+        <v>0</v>
+      </c>
+      <c r="I449" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J449" s="3">
+        <v>4</v>
+      </c>
+      <c r="K449" s="4">
+        <v>2.2588660492432799E-2</v>
+      </c>
+      <c r="L449" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="M449" s="1" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="450" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A450" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D450" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E450" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F450" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G450" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H450" s="3">
+        <v>0</v>
+      </c>
+      <c r="I450" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="J450" s="3">
+        <v>4</v>
+      </c>
+      <c r="K450" s="4">
+        <v>1.3871068419044978E-2</v>
+      </c>
+      <c r="L450" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="M450" s="1" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="451" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A451" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D451" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E451" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F451" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G451" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H451" s="3">
+        <v>0</v>
+      </c>
+      <c r="I451" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J451" s="3">
+        <v>2</v>
+      </c>
+      <c r="K451" s="4">
+        <v>6.9355342095224889E-3</v>
+      </c>
+      <c r="L451" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="M451" s="1" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="452" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A452" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D452" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E452" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F452" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G452" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H452" s="3">
+        <v>0</v>
+      </c>
+      <c r="I452" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="J452" s="3">
+        <v>2</v>
+      </c>
+      <c r="K452" s="4">
+        <v>9.42151874882231E-3</v>
+      </c>
+      <c r="L452" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="M452" s="1" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="453" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A453" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D453" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E453" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F453" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G453" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H453" s="3">
+        <v>0</v>
+      </c>
+      <c r="I453" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="J453" s="3">
+        <v>2</v>
+      </c>
+      <c r="K453" s="4">
+        <v>9.42151874882231E-3</v>
+      </c>
+      <c r="L453" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="M453" s="1" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="454" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A454" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D454" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E454" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F454" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G454" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H454" s="3">
+        <v>0</v>
+      </c>
+      <c r="I454" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="J454" s="3">
+        <v>2</v>
+      </c>
+      <c r="K454" s="4">
+        <v>9.42151874882231E-3</v>
+      </c>
+      <c r="L454" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="M454" s="1" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="455" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A455" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D455" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E455" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F455" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G455" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H455" s="3">
+        <v>0</v>
+      </c>
+      <c r="I455" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="J455" s="3">
+        <v>2</v>
+      </c>
+      <c r="K455" s="4">
+        <v>9.42151874882231E-3</v>
+      </c>
+      <c r="L455" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="M455" s="1" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="456" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A456" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D456" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E456" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F456" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G456" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H456" s="3">
+        <v>0</v>
+      </c>
+      <c r="I456" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="J456" s="3">
+        <v>3</v>
+      </c>
+      <c r="K456" s="4">
+        <v>1.4132278123233465E-2</v>
+      </c>
+      <c r="L456" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="M456" s="1" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="457" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A457" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D457" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E457" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F457" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="G457" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="H457" s="3">
+        <v>0</v>
+      </c>
+      <c r="I457" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="J457" s="3">
+        <v>3</v>
+      </c>
+      <c r="K457" s="4">
+        <v>1.4132278123233465E-2</v>
+      </c>
+      <c r="L457" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="M457" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="458" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A458" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D458" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E458" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F458" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G458" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H458" s="3">
+        <v>0</v>
+      </c>
+      <c r="I458" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="J458" s="3">
+        <v>2</v>
+      </c>
+      <c r="K458" s="4">
+        <v>9.42151874882231E-3</v>
+      </c>
+      <c r="L458" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="M458" s="1" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="459" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A459" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D459" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E459" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F459" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G459" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H459" s="3">
+        <v>0</v>
+      </c>
+      <c r="I459" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="J459" s="3">
+        <v>3</v>
+      </c>
+      <c r="K459" s="4">
+        <v>1.4132278123233465E-2</v>
+      </c>
+      <c r="L459" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="M459" s="1" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="460" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A460" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B460" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D460" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E460" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F460" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="G460" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="H460" s="3">
+        <v>0</v>
+      </c>
+      <c r="I460" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="J460" s="3">
+        <v>3</v>
+      </c>
+      <c r="K460" s="4">
+        <v>1.4132278123233465E-2</v>
+      </c>
+      <c r="L460" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="M460" s="1" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="461" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A461" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D461" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E461" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F461" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G461" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H461" s="3">
+        <v>0</v>
+      </c>
+      <c r="I461" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="J461" s="3">
+        <v>2</v>
+      </c>
+      <c r="K461" s="4">
+        <v>9.42151874882231E-3</v>
+      </c>
+      <c r="L461" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="M461" s="1" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="462" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A462" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D462" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E462" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F462" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G462" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H462" s="3">
+        <v>0</v>
+      </c>
+      <c r="I462" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="J462" s="3">
+        <v>3</v>
+      </c>
+      <c r="K462" s="4">
+        <v>1.4132278123233465E-2</v>
+      </c>
+      <c r="L462" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="M462" s="1" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="463" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A463" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D463" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E463" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F463" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="G463" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H463" s="3">
+        <v>0</v>
+      </c>
+      <c r="I463" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="J463" s="3">
+        <v>4</v>
+      </c>
+      <c r="K463" s="4">
+        <v>2.134016218523261E-2</v>
+      </c>
+      <c r="L463" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="M463" s="1" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="464" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A464" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D464" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E464" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F464" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="G464" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="H464" s="3">
+        <v>0</v>
+      </c>
+      <c r="I464" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="J464" s="3">
+        <v>4</v>
+      </c>
+      <c r="K464" s="4">
+        <v>2.134016218523261E-2</v>
+      </c>
+      <c r="L464" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="M464" s="1" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="465" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A465" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D465" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E465" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F465" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="G465" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="H465" s="3">
+        <v>0</v>
+      </c>
+      <c r="I465" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="J465" s="3">
+        <v>3</v>
+      </c>
+      <c r="K465" s="4">
+        <v>1.6005121638924456E-2</v>
+      </c>
+      <c r="L465" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="M465" s="1" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="466" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A466" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D466" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E466" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F466" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="G466" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="H466" s="3">
+        <v>0</v>
+      </c>
+      <c r="I466" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="J466" s="3">
+        <v>4</v>
+      </c>
+      <c r="K466" s="4">
+        <v>2.134016218523261E-2</v>
+      </c>
+      <c r="L466" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="M466" s="1" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="467" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A467" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D467" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E467" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F467" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="G467" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="H467" s="3">
+        <v>0</v>
+      </c>
+      <c r="I467" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="J467" s="3">
+        <v>4</v>
+      </c>
+      <c r="K467" s="4">
+        <v>2.134016218523261E-2</v>
+      </c>
+      <c r="L467" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="M467" s="1" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="468" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A468" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D468" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E468" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F468" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="G468" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="H468" s="3">
+        <v>0</v>
+      </c>
+      <c r="I468" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="J468" s="3">
+        <v>4</v>
+      </c>
+      <c r="K468" s="4">
+        <v>2.134016218523261E-2</v>
+      </c>
+      <c r="L468" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="M468" s="1" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="469" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A469" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D469" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E469" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F469" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="G469" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="H469" s="3">
+        <v>0</v>
+      </c>
+      <c r="I469" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="J469" s="3">
+        <v>4</v>
+      </c>
+      <c r="K469" s="4">
+        <v>2.134016218523261E-2</v>
+      </c>
+      <c r="L469" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="M469" s="1" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="470" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A470" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D470" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="E470" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F470" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="G470" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="H470" s="3">
+        <v>0</v>
+      </c>
+      <c r="I470" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="J470" s="3">
+        <v>9</v>
+      </c>
+      <c r="K470" s="4">
+        <v>3.4029038112522683E-2</v>
+      </c>
+      <c r="L470" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="M470" s="1" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="471" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A471" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D471" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="E471" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F471" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="G471" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="H471" s="3">
+        <v>0</v>
+      </c>
+      <c r="I471" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="J471" s="3">
+        <v>11</v>
+      </c>
+      <c r="K471" s="4">
+        <v>4.1591046581972171E-2</v>
+      </c>
+      <c r="L471" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="M471" s="1" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="472" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A472" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D472" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="E472" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F472" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="G472" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H472" s="3">
+        <v>0</v>
+      </c>
+      <c r="I472" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="J472" s="3">
+        <v>10</v>
+      </c>
+      <c r="K472" s="4">
+        <v>3.7810042347247427E-2</v>
+      </c>
+      <c r="L472" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="M472" s="1" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="473" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A473" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C473" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D473" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="E473" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F473" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G473" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="H473" s="3">
+        <v>0</v>
+      </c>
+      <c r="I473" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="J473" s="3">
+        <v>2</v>
+      </c>
+      <c r="K473" s="4">
+        <v>1.0303967027305513E-2</v>
+      </c>
+      <c r="L473" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="M473" s="1" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="474" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A474" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B474" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D474" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="E474" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F474" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="G474" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="H474" s="3">
+        <v>0</v>
+      </c>
+      <c r="I474" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="J474" s="3">
+        <v>4</v>
+      </c>
+      <c r="K474" s="4">
+        <v>2.0607934054611025E-2</v>
+      </c>
+      <c r="L474" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="M474" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="475" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A475" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D475" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="E475" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F475" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="G475" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="H475" s="3">
+        <v>0</v>
+      </c>
+      <c r="I475" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="J475" s="3">
+        <v>4</v>
+      </c>
+      <c r="K475" s="4">
+        <v>2.0607934054611025E-2</v>
+      </c>
+      <c r="L475" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="M475" s="1" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="476" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A476" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D476" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="E476" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F476" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="G476" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="H476" s="3">
+        <v>0</v>
+      </c>
+      <c r="I476" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="J476" s="3">
+        <v>2</v>
+      </c>
+      <c r="K476" s="4">
+        <v>1.0303967027305513E-2</v>
+      </c>
+      <c r="L476" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="M476" s="1" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="477" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A477" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D477" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="E477" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F477" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G477" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="H477" s="3">
+        <v>0</v>
+      </c>
+      <c r="I477" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="J477" s="3">
+        <v>4</v>
+      </c>
+      <c r="K477" s="4">
+        <v>2.0607934054611025E-2</v>
+      </c>
+      <c r="L477" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="M477" s="1" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="478" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A478" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D478" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="E478" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F478" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="G478" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="H478" s="3">
+        <v>0</v>
+      </c>
+      <c r="I478" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="J478" s="3">
+        <v>3</v>
+      </c>
+      <c r="K478" s="4">
+        <v>1.5455950540958269E-2</v>
+      </c>
+      <c r="L478" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="M478" s="1" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="479" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A479" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D479" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="E479" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F479" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="G479" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="H479" s="3">
+        <v>0</v>
+      </c>
+      <c r="I479" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="J479" s="3">
+        <v>4</v>
+      </c>
+      <c r="K479" s="4">
+        <v>2.0607934054611025E-2</v>
+      </c>
+      <c r="L479" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="M479" s="1" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="480" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A480" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D480" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="E480" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F480" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="G480" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="H480" s="3">
+        <v>0</v>
+      </c>
+      <c r="I480" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="J480" s="3">
+        <v>4</v>
+      </c>
+      <c r="K480" s="4">
+        <v>2.0607934054611025E-2</v>
+      </c>
+      <c r="L480" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="M480" s="1" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="481" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A481" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D481" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="E481" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F481" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="G481" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="H481" s="3">
+        <v>0</v>
+      </c>
+      <c r="I481" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="J481" s="3">
+        <v>4</v>
+      </c>
+      <c r="K481" s="4">
+        <v>2.0607934054611025E-2</v>
+      </c>
+      <c r="L481" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="M481" s="1" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="482" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A482" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B482" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D482" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="E482" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F482" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="G482" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="H482" s="3">
+        <v>0</v>
+      </c>
+      <c r="I482" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="J482" s="3">
+        <v>4</v>
+      </c>
+      <c r="K482" s="4">
+        <v>2.0607934054611025E-2</v>
+      </c>
+      <c r="L482" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="M482" s="1" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="483" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A483" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D483" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E483" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F483" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="G483" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="H483" s="3">
+        <v>0</v>
+      </c>
+      <c r="I483" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="J483" s="3">
+        <v>3</v>
+      </c>
+      <c r="K483" s="4">
+        <v>2.1385799828913601E-2</v>
+      </c>
+      <c r="L483" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="M483" s="1" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="484" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A484" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B484" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D484" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E484" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F484" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="G484" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="H484" s="3">
+        <v>0</v>
+      </c>
+      <c r="I484" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="J484" s="3">
+        <v>3</v>
+      </c>
+      <c r="K484" s="4">
+        <v>2.1385799828913601E-2</v>
+      </c>
+      <c r="L484" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="M484" s="1" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="485" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A485" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D485" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E485" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F485" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="G485" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="H485" s="3">
+        <v>0</v>
+      </c>
+      <c r="I485" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="J485" s="3">
+        <v>3</v>
+      </c>
+      <c r="K485" s="4">
+        <v>2.1385799828913601E-2</v>
+      </c>
+      <c r="L485" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="M485" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="486" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A486" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B486" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D486" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E486" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F486" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="G486" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="H486" s="3">
+        <v>0</v>
+      </c>
+      <c r="I486" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="J486" s="3">
+        <v>4</v>
+      </c>
+      <c r="K486" s="4">
+        <v>2.8514399771884805E-2</v>
+      </c>
+      <c r="L486" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="M486" s="1" t="s">
+        <v>1060</v>
       </c>
     </row>
   </sheetData>
